--- a/old_database/crypto/bioSample/bioSample_2550.xlsx
+++ b/old_database/crypto/bioSample/bioSample_2550.xlsx
@@ -55,7 +55,7 @@
     <t>10.10.17</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_2550</t>
   </si>
   <si>
     <t>CNAG_00000</t>
